--- a/Assets/Config/Excel/物品配置.xlsx
+++ b/Assets/Config/Excel/物品配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17720" windowHeight="4470"/>
+    <workbookView windowWidth="16720" windowHeight="9310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Key</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>英文描述</t>
+  </si>
+  <si>
+    <t>价格</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -1115,21 +1118,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.8727272727273" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="50.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="34.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,44 +1151,53 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
     </row>
@@ -1199,21 +1211,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
     <col min="3" max="4" width="19.1272727272727" customWidth="1"/>
-    <col min="5" max="5" width="21.8727272727273" customWidth="1"/>
+    <col min="5" max="6" width="21.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,106 +1242,124 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>40</v>
       </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
         <v>50</v>
       </c>
     </row>
@@ -1343,19 +1373,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1371,73 +1401,88 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/物品配置.xlsx
+++ b/Assets/Config/Excel/物品配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16720" windowHeight="9310" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Key</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>恢复血量</t>
+  </si>
+  <si>
+    <t>商店默认数量</t>
   </si>
   <si>
     <t>Consumable_0</t>
@@ -1211,13 +1214,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
@@ -1225,7 +1228,7 @@
     <col min="5" max="6" width="21.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,22 +1250,25 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1270,22 +1276,25 @@
       <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -1293,22 +1302,25 @@
       <c r="G3">
         <v>20</v>
       </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -1316,22 +1328,25 @@
       <c r="G4">
         <v>30</v>
       </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -1339,28 +1354,34 @@
       <c r="G5">
         <v>40</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>50</v>
       </c>
       <c r="G6">
         <v>50</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1373,19 +1394,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,85 +1425,100 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>10</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/物品配置.xlsx
+++ b/Assets/Config/Excel/物品配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9870" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Key</t>
   </si>
@@ -49,6 +49,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>合成</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>A powerful weapon!</t>
   </si>
   <si>
+    <t>Weapon_0,1,Material_3,2</t>
+  </si>
+  <si>
     <t>恢复血量</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>恢复大量的生命值</t>
+  </si>
+  <si>
+    <t>Material_0,2,Material_1,1,Material_2,1,Material_3,1</t>
   </si>
   <si>
     <t>Material_0</t>
@@ -1121,21 +1130,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.8727272727273" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="34.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="29.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,50 +1167,56 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
     </row>
@@ -1214,21 +1230,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
     <col min="3" max="4" width="19.1272727272727" customWidth="1"/>
-    <col min="5" max="6" width="21.8727272727273" customWidth="1"/>
+    <col min="5" max="5" width="21.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="58.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,139 +1266,145 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>40</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
         <v>50</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
@@ -1394,19 +1418,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="21.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1426,98 +1450,101 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
     </row>

--- a/Assets/Config/Excel/物品配置.xlsx
+++ b/Assets/Config/Excel/物品配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="9870"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Key</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Beer</t>
+  </si>
+  <si>
+    <t>Material_1,2</t>
   </si>
   <si>
     <t>Consumable_4</t>
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1233,7 +1236,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1372,6 +1375,9 @@
       <c r="F5">
         <v>40</v>
       </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
       <c r="H5">
         <v>40</v>
       </c>
@@ -1381,16 +1387,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1399,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -1458,19 +1464,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1481,19 +1487,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>10</v>
